--- a/data/trans_orig/P6603-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6603-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A854C3F0-F49E-409F-AC42-853CA75F6B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF2569C5-D460-4A21-9579-D5009CF95C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{074F2BEA-DF88-471E-9FE2-F0A1866840CD}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C894C05A-0785-4AE3-8D14-3250024772E4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="562">
   <si>
     <t>Población según la exposición a respirar vapores, humos, polvo, o sustancias peligrosas.../Manejar o tocas sustancias o productos peligrosos/Radiaciones como rayos X, soldadura, rayos láseren su trabajo en 2007 (Tasa respuesta: 43,03%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>56,34%</t>
   </si>
   <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
   </si>
   <si>
     <t>78,22%</t>
   </si>
   <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
   </si>
   <si>
     <t>62,66%</t>
   </si>
   <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -107,1612 +107,1624 @@
     <t>21,59%</t>
   </si>
   <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
   </si>
   <si>
     <t>14,33%</t>
   </si>
   <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
   </si>
   <si>
     <t>19,5%</t>
   </si>
   <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la exposición a respirar vapores, humos, polvo, o sustancias peligrosas.../Manejar o tocas sustancias o productos peligrosos/Radiaciones como rayos X, soldadura, rayos láseren su trabajo en 2012 (Tasa respuesta: 33,84%)</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
     <t>15,92%</t>
   </si>
   <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a respirar vapores, humos, polvo, o sustancias peligrosas.../Manejar o tocas sustancias o productos peligrosos/Radiaciones como rayos X, soldadura, rayos láseren su trabajo en 2015 (Tasa respuesta: 35,39%)</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
   </si>
   <si>
     <t>10,56%</t>
   </si>
   <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
   </si>
   <si>
     <t>6,33%</t>
   </si>
   <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a respirar vapores, humos, polvo, o sustancias peligrosas.../Manejar o tocas sustancias o productos peligrosos/Radiaciones como rayos X, soldadura, rayos láseren su trabajo en 2023 (Tasa respuesta: 20,48%)</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
   </si>
   <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la exposición a respirar vapores, humos, polvo, o sustancias peligrosas.../Manejar o tocas sustancias o productos peligrosos/Radiaciones como rayos X, soldadura, rayos láseren su trabajo en 2012 (Tasa respuesta: 33,84%)</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a respirar vapores, humos, polvo, o sustancias peligrosas.../Manejar o tocas sustancias o productos peligrosos/Radiaciones como rayos X, soldadura, rayos láseren su trabajo en 2015 (Tasa respuesta: 35,39%)</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a respirar vapores, humos, polvo, o sustancias peligrosas.../Manejar o tocas sustancias o productos peligrosos/Radiaciones como rayos X, soldadura, rayos láseren su trabajo en 2023 (Tasa respuesta: 20,48%)</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
+    <t>4,74%</t>
   </si>
 </sst>
 </file>
@@ -2124,7 +2136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBBA9EE3-3780-4AAF-A611-7F301B27769A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA608EE6-1E90-4DB4-A790-1FC22B6B55EB}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2870,7 +2882,7 @@
         <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -2879,13 +2891,13 @@
         <v>9862</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -2894,13 +2906,13 @@
         <v>24280</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,13 +2927,13 @@
         <v>11134</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -2930,13 +2942,13 @@
         <v>3717</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -2945,13 +2957,13 @@
         <v>14851</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,13 +3031,13 @@
         <v>1298726</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>831</v>
@@ -3034,13 +3046,13 @@
         <v>867788</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>2076</v>
@@ -3049,13 +3061,13 @@
         <v>2166514</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3070,13 +3082,13 @@
         <v>318071</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>94</v>
@@ -3085,13 +3097,13 @@
         <v>98245</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>394</v>
@@ -3100,13 +3112,13 @@
         <v>416316</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,10 +3133,10 @@
         <v>208327</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>144</v>
@@ -3193,7 +3205,7 @@
         <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="M22" s="7">
         <v>85</v>
@@ -3202,13 +3214,13 @@
         <v>91805</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3264,7 +3276,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3283,7 +3295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A45330C4-FAD2-414C-92DE-191B73CA01BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B4D990B-7009-44A7-8DF5-08D2DE00BF53}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3300,7 +3312,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3407,13 +3419,13 @@
         <v>79260</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>93</v>
@@ -3422,13 +3434,13 @@
         <v>101320</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>170</v>
@@ -3437,13 +3449,13 @@
         <v>180580</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,13 +3470,13 @@
         <v>45425</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
@@ -3473,13 +3485,13 @@
         <v>24616</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>67</v>
@@ -3488,13 +3500,13 @@
         <v>70041</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,13 +3521,13 @@
         <v>37884</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -3524,13 +3536,13 @@
         <v>6319</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M6" s="7">
         <v>43</v>
@@ -3539,13 +3551,13 @@
         <v>44203</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3560,13 +3572,13 @@
         <v>21449</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -3575,10 +3587,10 @@
         <v>6605</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>193</v>
@@ -3596,7 +3608,7 @@
         <v>195</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,13 +3676,13 @@
         <v>490225</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H9" s="7">
         <v>408</v>
@@ -3679,13 +3691,13 @@
         <v>436951</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M9" s="7">
         <v>876</v>
@@ -3694,13 +3706,13 @@
         <v>927176</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3715,13 +3727,13 @@
         <v>237624</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H10" s="7">
         <v>76</v>
@@ -3730,13 +3742,13 @@
         <v>81055</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M10" s="7">
         <v>301</v>
@@ -3745,13 +3757,13 @@
         <v>318680</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,13 +3778,13 @@
         <v>111818</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H11" s="7">
         <v>31</v>
@@ -3781,13 +3793,13 @@
         <v>34628</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M11" s="7">
         <v>135</v>
@@ -3796,13 +3808,13 @@
         <v>146446</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,13 +3829,13 @@
         <v>71086</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>225</v>
+        <v>71</v>
       </c>
       <c r="H12" s="7">
         <v>20</v>
@@ -3835,10 +3847,10 @@
         <v>226</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>108</v>
+        <v>227</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M12" s="7">
         <v>85</v>
@@ -3847,13 +3859,13 @@
         <v>91289</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3921,13 +3933,13 @@
         <v>246404</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H14" s="7">
         <v>178</v>
@@ -3936,13 +3948,13 @@
         <v>197986</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M14" s="7">
         <v>403</v>
@@ -3951,13 +3963,13 @@
         <v>444390</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,13 +3984,13 @@
         <v>45103</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H15" s="7">
         <v>21</v>
@@ -3987,13 +3999,13 @@
         <v>24283</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M15" s="7">
         <v>61</v>
@@ -4002,13 +4014,13 @@
         <v>69386</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,13 +4035,13 @@
         <v>18002</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>137</v>
+        <v>252</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -4038,13 +4050,13 @@
         <v>8465</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -4053,13 +4065,13 @@
         <v>26467</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,13 +4086,13 @@
         <v>6748</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -4089,13 +4101,13 @@
         <v>3164</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -4104,13 +4116,13 @@
         <v>9912</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,13 +4190,13 @@
         <v>815890</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H19" s="7">
         <v>679</v>
@@ -4193,13 +4205,13 @@
         <v>736256</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M19" s="7">
         <v>1449</v>
@@ -4208,13 +4220,13 @@
         <v>1552147</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,13 +4241,13 @@
         <v>328152</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H20" s="7">
         <v>121</v>
@@ -4244,13 +4256,13 @@
         <v>129955</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M20" s="7">
         <v>429</v>
@@ -4259,13 +4271,13 @@
         <v>458107</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4280,13 +4292,13 @@
         <v>167704</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H21" s="7">
         <v>45</v>
@@ -4295,13 +4307,13 @@
         <v>49412</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M21" s="7">
         <v>201</v>
@@ -4310,13 +4322,13 @@
         <v>217116</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4331,13 +4343,13 @@
         <v>99283</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H22" s="7">
         <v>28</v>
@@ -4346,13 +4358,13 @@
         <v>29972</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>146</v>
+        <v>297</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M22" s="7">
         <v>118</v>
@@ -4361,13 +4373,13 @@
         <v>129256</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4423,7 +4435,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4442,7 +4454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C1AC55-542D-46CE-9B5A-FD882E6370C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CD4CA3-76C7-4002-A2CF-FD553F75B266}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4459,7 +4471,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4566,13 +4578,13 @@
         <v>48760</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="H4" s="7">
         <v>49</v>
@@ -4581,13 +4593,13 @@
         <v>49424</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M4" s="7">
         <v>95</v>
@@ -4596,13 +4608,13 @@
         <v>98184</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,13 +4629,13 @@
         <v>48575</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -4632,13 +4644,13 @@
         <v>17686</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="M5" s="7">
         <v>64</v>
@@ -4647,13 +4659,13 @@
         <v>66261</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4668,13 +4680,13 @@
         <v>29468</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -4683,13 +4695,13 @@
         <v>4977</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>158</v>
+        <v>325</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="M6" s="7">
         <v>33</v>
@@ -4698,13 +4710,13 @@
         <v>34445</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4719,13 +4731,13 @@
         <v>13164</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>193</v>
+        <v>330</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>326</v>
+        <v>46</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4737,10 +4749,10 @@
         <v>45</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -4749,13 +4761,13 @@
         <v>13164</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4823,13 +4835,13 @@
         <v>492287</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H9" s="7">
         <v>461</v>
@@ -4838,13 +4850,13 @@
         <v>471833</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>336</v>
+        <v>201</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M9" s="7">
         <v>919</v>
@@ -4853,13 +4865,13 @@
         <v>964119</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4874,13 +4886,13 @@
         <v>252731</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H10" s="7">
         <v>110</v>
@@ -4889,13 +4901,13 @@
         <v>111967</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="M10" s="7">
         <v>347</v>
@@ -4904,13 +4916,13 @@
         <v>364698</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,13 +4937,13 @@
         <v>136851</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H11" s="7">
         <v>50</v>
@@ -4940,13 +4952,13 @@
         <v>50993</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M11" s="7">
         <v>179</v>
@@ -4955,13 +4967,13 @@
         <v>187844</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,13 +4988,13 @@
         <v>38579</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="H12" s="7">
         <v>16</v>
@@ -4991,13 +5003,13 @@
         <v>16986</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="M12" s="7">
         <v>53</v>
@@ -5009,10 +5021,10 @@
         <v>226</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5080,13 +5092,13 @@
         <v>259290</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H14" s="7">
         <v>251</v>
@@ -5095,13 +5107,13 @@
         <v>261263</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M14" s="7">
         <v>489</v>
@@ -5110,13 +5122,13 @@
         <v>520554</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,13 +5143,13 @@
         <v>61911</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H15" s="7">
         <v>33</v>
@@ -5146,13 +5158,13 @@
         <v>32336</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>381</v>
+        <v>67</v>
       </c>
       <c r="M15" s="7">
         <v>88</v>
@@ -5161,10 +5173,10 @@
         <v>94247</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>383</v>
+        <v>223</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>384</v>
@@ -5182,13 +5194,13 @@
         <v>22061</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>75</v>
+        <v>385</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -5197,13 +5209,13 @@
         <v>6787</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -5212,13 +5224,13 @@
         <v>28848</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>390</v>
+        <v>146</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5233,7 +5245,7 @@
         <v>5340</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>393</v>
@@ -5266,10 +5278,10 @@
         <v>398</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,7 +5385,7 @@
         <v>407</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>408</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5388,13 +5400,13 @@
         <v>363217</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="H20" s="7">
         <v>161</v>
@@ -5403,13 +5415,13 @@
         <v>161989</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="M20" s="7">
         <v>499</v>
@@ -5418,13 +5430,13 @@
         <v>525205</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5439,13 +5451,13 @@
         <v>188380</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="H21" s="7">
         <v>62</v>
@@ -5454,13 +5466,13 @@
         <v>62756</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="M21" s="7">
         <v>240</v>
@@ -5469,13 +5481,13 @@
         <v>251137</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,13 +5502,13 @@
         <v>57083</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -5505,13 +5517,13 @@
         <v>24047</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>431</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>432</v>
+        <v>107</v>
       </c>
       <c r="M22" s="7">
         <v>76</v>
@@ -5520,13 +5532,13 @@
         <v>81130</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>250</v>
+        <v>431</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5582,7 +5594,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -5601,7 +5613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ECAB5C9-9841-4951-9B51-D089FB68FB81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB2FD65-FE81-4378-AC02-713E10135BFC}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5618,7 +5630,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5725,13 +5737,13 @@
         <v>34250</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="H4" s="7">
         <v>37</v>
@@ -5740,13 +5752,13 @@
         <v>24361</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="M4" s="7">
         <v>71</v>
@@ -5755,13 +5767,13 @@
         <v>58611</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5776,13 +5788,13 @@
         <v>22978</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>447</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
@@ -5791,13 +5803,13 @@
         <v>15947</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>450</v>
       </c>
       <c r="M5" s="7">
         <v>49</v>
@@ -5806,13 +5818,13 @@
         <v>38925</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5827,13 +5839,13 @@
         <v>4759</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>253</v>
+        <v>453</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>363</v>
+        <v>454</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -5842,13 +5854,13 @@
         <v>1988</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -5857,13 +5869,13 @@
         <v>6747</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>391</v>
+        <v>459</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>458</v>
+        <v>325</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5878,13 +5890,13 @@
         <v>5285</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5893,13 +5905,13 @@
         <v>723</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -5908,13 +5920,13 @@
         <v>6008</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>466</v>
+        <v>121</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>209</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5982,13 +5994,13 @@
         <v>343536</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H9" s="7">
         <v>397</v>
@@ -5997,13 +6009,13 @@
         <v>302081</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M9" s="7">
         <v>660</v>
@@ -6012,13 +6024,13 @@
         <v>645617</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6033,13 +6045,13 @@
         <v>197253</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H10" s="7">
         <v>145</v>
@@ -6048,13 +6060,13 @@
         <v>110169</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>343</v>
+        <v>480</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M10" s="7">
         <v>325</v>
@@ -6063,13 +6075,13 @@
         <v>307421</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6084,13 +6096,13 @@
         <v>70606</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>209</v>
+        <v>486</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>140</v>
+        <v>488</v>
       </c>
       <c r="H11" s="7">
         <v>33</v>
@@ -6099,13 +6111,13 @@
         <v>24382</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>429</v>
+        <v>489</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>486</v>
+        <v>382</v>
       </c>
       <c r="M11" s="7">
         <v>95</v>
@@ -6114,13 +6126,13 @@
         <v>94988</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>244</v>
+        <v>492</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6135,13 +6147,13 @@
         <v>20895</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>115</v>
+        <v>496</v>
       </c>
       <c r="H12" s="7">
         <v>23</v>
@@ -6150,13 +6162,13 @@
         <v>17848</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>491</v>
+        <v>325</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>293</v>
+        <v>497</v>
       </c>
       <c r="M12" s="7">
         <v>41</v>
@@ -6165,13 +6177,13 @@
         <v>38743</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>493</v>
+        <v>366</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6239,13 +6251,13 @@
         <v>214614</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>239</v>
+        <v>500</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="H14" s="7">
         <v>262</v>
@@ -6254,13 +6266,13 @@
         <v>184041</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="M14" s="7">
         <v>457</v>
@@ -6269,13 +6281,13 @@
         <v>398654</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6290,13 +6302,13 @@
         <v>28362</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>209</v>
+        <v>486</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="H15" s="7">
         <v>22</v>
@@ -6305,13 +6317,13 @@
         <v>18470</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>459</v>
+        <v>513</v>
       </c>
       <c r="M15" s="7">
         <v>53</v>
@@ -6320,13 +6332,13 @@
         <v>46832</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>514</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6341,13 +6353,13 @@
         <v>6485</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -6356,13 +6368,13 @@
         <v>1504</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -6371,13 +6383,13 @@
         <v>7989</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>514</v>
+        <v>192</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>226</v>
+        <v>523</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6392,13 +6404,13 @@
         <v>4523</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -6407,13 +6419,13 @@
         <v>9760</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -6422,13 +6434,13 @@
         <v>14283</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>522</v>
+        <v>430</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6496,13 +6508,13 @@
         <v>592400</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="H19" s="7">
         <v>696</v>
@@ -6511,13 +6523,13 @@
         <v>510483</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="M19" s="7">
         <v>1188</v>
@@ -6526,13 +6538,13 @@
         <v>1102883</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6547,13 +6559,13 @@
         <v>248592</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="H20" s="7">
         <v>191</v>
@@ -6562,13 +6574,13 @@
         <v>144586</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>537</v>
+        <v>378</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="M20" s="7">
         <v>427</v>
@@ -6577,13 +6589,13 @@
         <v>393178</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6598,13 +6610,13 @@
         <v>81850</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="H21" s="7">
         <v>38</v>
@@ -6613,13 +6625,13 @@
         <v>27874</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>546</v>
+        <v>115</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="M21" s="7">
         <v>115</v>
@@ -6628,13 +6640,13 @@
         <v>109725</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>298</v>
+        <v>245</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6649,13 +6661,13 @@
         <v>30704</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>551</v>
+        <v>108</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="H22" s="7">
         <v>35</v>
@@ -6664,13 +6676,13 @@
         <v>28330</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="M22" s="7">
         <v>60</v>
@@ -6679,13 +6691,13 @@
         <v>59034</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>261</v>
+        <v>561</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6741,7 +6753,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6603-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6603-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF2569C5-D460-4A21-9579-D5009CF95C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA318903-1AA7-4D2B-A376-E4A450F71725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C894C05A-0785-4AE3-8D14-3250024772E4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{01F124FA-E626-44E6-BA93-0667B88BA2C6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="564">
   <si>
     <t>Población según la exposición a respirar vapores, humos, polvo, o sustancias peligrosas.../Manejar o tocas sustancias o productos peligrosos/Radiaciones como rayos X, soldadura, rayos láseren su trabajo en 2007 (Tasa respuesta: 43,03%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>56,34%</t>
   </si>
   <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
   </si>
   <si>
     <t>78,22%</t>
   </si>
   <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
   </si>
   <si>
     <t>62,66%</t>
   </si>
   <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -107,28 +107,28 @@
     <t>21,59%</t>
   </si>
   <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
   </si>
   <si>
     <t>14,33%</t>
   </si>
   <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
   </si>
   <si>
     <t>19,5%</t>
   </si>
   <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -137,28 +137,28 @@
     <t>16,2%</t>
   </si>
   <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
   </si>
   <si>
     <t>6,02%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
   </si>
   <si>
     <t>13,26%</t>
   </si>
   <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -167,10 +167,10 @@
     <t>5,86%</t>
   </si>
   <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
   </si>
   <si>
     <t>1,42%</t>
@@ -185,1543 +185,1549 @@
     <t>4,58%</t>
   </si>
   <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
     <t>2,97%</t>
   </si>
   <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
   </si>
   <si>
     <t>7,55%</t>
   </si>
   <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la exposición a respirar vapores, humos, polvo, o sustancias peligrosas.../Manejar o tocas sustancias o productos peligrosos/Radiaciones como rayos X, soldadura, rayos láseren su trabajo en 2012 (Tasa respuesta: 33,84%)</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a respirar vapores, humos, polvo, o sustancias peligrosas.../Manejar o tocas sustancias o productos peligrosos/Radiaciones como rayos X, soldadura, rayos láseren su trabajo en 2016 (Tasa respuesta: 35,39%)</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
   </si>
   <si>
     <t>5,35%</t>
   </si>
   <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a respirar vapores, humos, polvo, o sustancias peligrosas.../Manejar o tocas sustancias o productos peligrosos/Radiaciones como rayos X, soldadura, rayos láseren su trabajo en 2023 (Tasa respuesta: 20,48%)</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
   </si>
   <si>
     <t>2,03%</t>
   </si>
   <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la exposición a respirar vapores, humos, polvo, o sustancias peligrosas.../Manejar o tocas sustancias o productos peligrosos/Radiaciones como rayos X, soldadura, rayos láseren su trabajo en 2012 (Tasa respuesta: 33,84%)</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a respirar vapores, humos, polvo, o sustancias peligrosas.../Manejar o tocas sustancias o productos peligrosos/Radiaciones como rayos X, soldadura, rayos láseren su trabajo en 2015 (Tasa respuesta: 35,39%)</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a respirar vapores, humos, polvo, o sustancias peligrosas.../Manejar o tocas sustancias o productos peligrosos/Radiaciones como rayos X, soldadura, rayos láseren su trabajo en 2023 (Tasa respuesta: 20,48%)</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
     <t>2,8%</t>
   </si>
   <si>
     <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
   </si>
   <si>
     <t>4,74%</t>
@@ -2136,7 +2142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA608EE6-1E90-4DB4-A790-1FC22B6B55EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F56ABC7-6820-4548-B29A-BD2C5A184BD7}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2882,7 +2888,7 @@
         <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -2891,13 +2897,13 @@
         <v>9862</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -2906,13 +2912,13 @@
         <v>24280</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,7 +2933,7 @@
         <v>11134</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>116</v>
@@ -3205,7 +3211,7 @@
         <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M22" s="7">
         <v>85</v>
@@ -3295,7 +3301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B4D990B-7009-44A7-8DF5-08D2DE00BF53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52B8352-E1E3-457E-82BF-7A98625E69E4}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3799,7 +3805,7 @@
         <v>219</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>220</v>
+        <v>43</v>
       </c>
       <c r="M11" s="7">
         <v>135</v>
@@ -3808,13 +3814,13 @@
         <v>146446</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3829,13 +3835,13 @@
         <v>71086</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>225</v>
+        <v>109</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>220</v>
       </c>
       <c r="H12" s="7">
         <v>20</v>
@@ -3844,13 +3850,13 @@
         <v>20203</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M12" s="7">
         <v>85</v>
@@ -3859,13 +3865,13 @@
         <v>91289</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,13 +3939,13 @@
         <v>246404</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H14" s="7">
         <v>178</v>
@@ -3948,13 +3954,13 @@
         <v>197986</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M14" s="7">
         <v>403</v>
@@ -3963,13 +3969,13 @@
         <v>444390</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,13 +3990,13 @@
         <v>45103</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H15" s="7">
         <v>21</v>
@@ -3999,13 +4005,13 @@
         <v>24283</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M15" s="7">
         <v>61</v>
@@ -4014,13 +4020,13 @@
         <v>69386</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,13 +4041,13 @@
         <v>18002</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -4050,13 +4056,13 @@
         <v>8465</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -4065,13 +4071,13 @@
         <v>26467</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,13 +4092,13 @@
         <v>6748</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -4101,13 +4107,13 @@
         <v>3164</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -4116,13 +4122,13 @@
         <v>9912</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,13 +4196,13 @@
         <v>815890</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H19" s="7">
         <v>679</v>
@@ -4205,13 +4211,13 @@
         <v>736256</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M19" s="7">
         <v>1449</v>
@@ -4220,13 +4226,13 @@
         <v>1552147</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4247,13 @@
         <v>328152</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H20" s="7">
         <v>121</v>
@@ -4256,13 +4262,13 @@
         <v>129955</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M20" s="7">
         <v>429</v>
@@ -4271,13 +4277,13 @@
         <v>458107</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4292,13 +4298,13 @@
         <v>167704</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H21" s="7">
         <v>45</v>
@@ -4307,13 +4313,13 @@
         <v>49412</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M21" s="7">
         <v>201</v>
@@ -4322,13 +4328,13 @@
         <v>217116</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4343,13 +4349,13 @@
         <v>99283</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>296</v>
+        <v>43</v>
       </c>
       <c r="H22" s="7">
         <v>28</v>
@@ -4358,13 +4364,13 @@
         <v>29972</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M22" s="7">
         <v>118</v>
@@ -4373,13 +4379,13 @@
         <v>129256</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4454,7 +4460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CD4CA3-76C7-4002-A2CF-FD553F75B266}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4D9554-7B28-4846-9A2A-AE20D2BDE3BD}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4471,7 +4477,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4578,13 +4584,13 @@
         <v>48760</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="H4" s="7">
         <v>49</v>
@@ -4593,13 +4599,13 @@
         <v>49424</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M4" s="7">
         <v>95</v>
@@ -4608,13 +4614,13 @@
         <v>98184</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,13 +4635,13 @@
         <v>48575</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -4644,13 +4650,13 @@
         <v>17686</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="M5" s="7">
         <v>64</v>
@@ -4659,13 +4665,13 @@
         <v>66261</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4680,13 +4686,13 @@
         <v>29468</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -4695,13 +4701,13 @@
         <v>4977</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M6" s="7">
         <v>33</v>
@@ -4710,13 +4716,13 @@
         <v>34445</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,13 +4737,13 @@
         <v>13164</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4749,10 +4755,10 @@
         <v>45</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -4761,13 +4767,13 @@
         <v>13164</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4835,13 +4841,13 @@
         <v>492287</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H9" s="7">
         <v>461</v>
@@ -4850,13 +4856,13 @@
         <v>471833</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>201</v>
+        <v>337</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M9" s="7">
         <v>919</v>
@@ -4865,13 +4871,13 @@
         <v>964119</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,13 +4892,13 @@
         <v>252731</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="H10" s="7">
         <v>110</v>
@@ -4901,13 +4907,13 @@
         <v>111967</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="M10" s="7">
         <v>347</v>
@@ -4916,13 +4922,13 @@
         <v>364698</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4937,13 +4943,13 @@
         <v>136851</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="H11" s="7">
         <v>50</v>
@@ -4952,13 +4958,13 @@
         <v>50993</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="M11" s="7">
         <v>179</v>
@@ -4967,13 +4973,13 @@
         <v>187844</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4988,13 +4994,13 @@
         <v>38579</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>365</v>
+        <v>293</v>
       </c>
       <c r="H12" s="7">
         <v>16</v>
@@ -5003,13 +5009,13 @@
         <v>16986</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>367</v>
+        <v>111</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="M12" s="7">
         <v>53</v>
@@ -5018,13 +5024,13 @@
         <v>55565</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,13 +5098,13 @@
         <v>259290</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="H14" s="7">
         <v>251</v>
@@ -5107,13 +5113,13 @@
         <v>261263</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="M14" s="7">
         <v>489</v>
@@ -5122,13 +5128,13 @@
         <v>520554</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5143,13 +5149,13 @@
         <v>61911</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="H15" s="7">
         <v>33</v>
@@ -5158,13 +5164,13 @@
         <v>32336</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M15" s="7">
         <v>88</v>
@@ -5173,10 +5179,10 @@
         <v>94247</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>384</v>
@@ -5227,10 +5233,10 @@
         <v>391</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>146</v>
+        <v>392</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5245,13 +5251,13 @@
         <v>5340</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>367</v>
+        <v>394</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -5260,13 +5266,13 @@
         <v>7061</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -5275,13 +5281,13 @@
         <v>12401</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,13 +5355,13 @@
         <v>800337</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="H19" s="7">
         <v>761</v>
@@ -5364,13 +5370,13 @@
         <v>782520</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>405</v>
+        <v>306</v>
       </c>
       <c r="M19" s="7">
         <v>1503</v>
@@ -5379,13 +5385,13 @@
         <v>1582856</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>19</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5400,13 +5406,13 @@
         <v>363217</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="H20" s="7">
         <v>161</v>
@@ -5415,13 +5421,13 @@
         <v>161989</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="M20" s="7">
         <v>499</v>
@@ -5430,13 +5436,13 @@
         <v>525205</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5451,13 +5457,13 @@
         <v>188380</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="H21" s="7">
         <v>62</v>
@@ -5466,13 +5472,13 @@
         <v>62756</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="M21" s="7">
         <v>240</v>
@@ -5481,13 +5487,13 @@
         <v>251137</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5502,13 +5508,13 @@
         <v>57083</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>427</v>
+        <v>255</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -5517,13 +5523,13 @@
         <v>24047</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>107</v>
+        <v>433</v>
       </c>
       <c r="M22" s="7">
         <v>76</v>
@@ -5532,13 +5538,13 @@
         <v>81130</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5613,7 +5619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB2FD65-FE81-4378-AC02-713E10135BFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4483B4-AB8B-4476-AE55-69F2015D4169}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5630,7 +5636,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5737,13 +5743,13 @@
         <v>34250</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="H4" s="7">
         <v>37</v>
@@ -5752,13 +5758,13 @@
         <v>24361</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="M4" s="7">
         <v>71</v>
@@ -5767,13 +5773,13 @@
         <v>58611</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,13 +5794,13 @@
         <v>22978</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
@@ -5803,13 +5809,13 @@
         <v>15947</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="M5" s="7">
         <v>49</v>
@@ -5818,13 +5824,13 @@
         <v>38925</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,13 +5845,13 @@
         <v>4759</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -5854,13 +5860,13 @@
         <v>1988</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -5869,13 +5875,13 @@
         <v>6747</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>325</v>
+        <v>463</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5890,13 +5896,13 @@
         <v>5285</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5905,13 +5911,13 @@
         <v>723</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -5920,13 +5926,13 @@
         <v>6008</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>121</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5994,13 +6000,13 @@
         <v>343536</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="H9" s="7">
         <v>397</v>
@@ -6009,13 +6015,13 @@
         <v>302081</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="M9" s="7">
         <v>660</v>
@@ -6024,13 +6030,13 @@
         <v>645617</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6045,13 +6051,13 @@
         <v>197253</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="H10" s="7">
         <v>145</v>
@@ -6060,13 +6066,13 @@
         <v>110169</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="M10" s="7">
         <v>325</v>
@@ -6075,13 +6081,13 @@
         <v>307421</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6096,13 +6102,13 @@
         <v>70606</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="H11" s="7">
         <v>33</v>
@@ -6111,13 +6117,13 @@
         <v>24382</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>382</v>
+        <v>495</v>
       </c>
       <c r="M11" s="7">
         <v>95</v>
@@ -6126,13 +6132,13 @@
         <v>94988</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6147,13 +6153,13 @@
         <v>20895</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>494</v>
+        <v>402</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="H12" s="7">
         <v>23</v>
@@ -6162,13 +6168,13 @@
         <v>17848</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>386</v>
+        <v>501</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>325</v>
+        <v>463</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="M12" s="7">
         <v>41</v>
@@ -6177,13 +6183,13 @@
         <v>38743</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6251,13 +6257,13 @@
         <v>214614</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="H14" s="7">
         <v>262</v>
@@ -6266,13 +6272,13 @@
         <v>184041</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="M14" s="7">
         <v>457</v>
@@ -6281,13 +6287,13 @@
         <v>398654</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6302,13 +6308,13 @@
         <v>28362</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="H15" s="7">
         <v>22</v>
@@ -6317,13 +6323,13 @@
         <v>18470</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="M15" s="7">
         <v>53</v>
@@ -6332,13 +6338,13 @@
         <v>46832</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>516</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6353,13 +6359,13 @@
         <v>6485</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>517</v>
+        <v>157</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -6368,13 +6374,13 @@
         <v>1504</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -6383,13 +6389,13 @@
         <v>7989</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>192</v>
+        <v>525</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6404,13 +6410,13 @@
         <v>4523</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -6419,13 +6425,13 @@
         <v>9760</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -6434,13 +6440,13 @@
         <v>14283</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>430</v>
+        <v>534</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6508,13 +6514,13 @@
         <v>592400</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="H19" s="7">
         <v>696</v>
@@ -6523,13 +6529,13 @@
         <v>510483</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="M19" s="7">
         <v>1188</v>
@@ -6538,13 +6544,13 @@
         <v>1102883</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6559,13 +6565,13 @@
         <v>248592</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="H20" s="7">
         <v>191</v>
@@ -6574,13 +6580,13 @@
         <v>144586</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="M20" s="7">
         <v>427</v>
@@ -6589,13 +6595,13 @@
         <v>393178</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>546</v>
+        <v>26</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6610,13 +6616,13 @@
         <v>81850</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="H21" s="7">
         <v>38</v>
@@ -6625,13 +6631,13 @@
         <v>27874</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>551</v>
+        <v>158</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="M21" s="7">
         <v>115</v>
@@ -6640,13 +6646,13 @@
         <v>109725</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>245</v>
+        <v>556</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,13 +6667,13 @@
         <v>30704</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>108</v>
+        <v>560</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>556</v>
+        <v>228</v>
       </c>
       <c r="H22" s="7">
         <v>35</v>
@@ -6676,13 +6682,13 @@
         <v>28330</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>557</v>
+        <v>102</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="M22" s="7">
         <v>60</v>
@@ -6691,13 +6697,13 @@
         <v>59034</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>560</v>
+        <v>365</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6603-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6603-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA318903-1AA7-4D2B-A376-E4A450F71725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17BDB3C2-9C24-437B-A9A2-578FB06A9081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{01F124FA-E626-44E6-BA93-0667B88BA2C6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FB62835C-33A1-44B8-B55D-F0907CEF344A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="558">
   <si>
     <t>Población según la exposición a respirar vapores, humos, polvo, o sustancias peligrosas.../Manejar o tocas sustancias o productos peligrosos/Radiaciones como rayos X, soldadura, rayos láseren su trabajo en 2007 (Tasa respuesta: 43,03%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>56,34%</t>
   </si>
   <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
   </si>
   <si>
     <t>78,22%</t>
   </si>
   <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
   </si>
   <si>
     <t>62,66%</t>
   </si>
   <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -107,1630 +107,1612 @@
     <t>21,59%</t>
   </si>
   <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
   </si>
   <si>
     <t>14,33%</t>
   </si>
   <si>
-    <t>9,25%</t>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la exposición a respirar vapores, humos, polvo, o sustancias peligrosas.../Manejar o tocas sustancias o productos peligrosos/Radiaciones como rayos X, soldadura, rayos láseren su trabajo en 2012 (Tasa respuesta: 33,84%)</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a respirar vapores, humos, polvo, o sustancias peligrosas.../Manejar o tocas sustancias o productos peligrosos/Radiaciones como rayos X, soldadura, rayos láseren su trabajo en 2016 (Tasa respuesta: 35,39%)</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
   </si>
   <si>
     <t>20,79%</t>
   </si>
   <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5,86%</t>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a respirar vapores, humos, polvo, o sustancias peligrosas.../Manejar o tocas sustancias o productos peligrosos/Radiaciones como rayos X, soldadura, rayos láseren su trabajo en 2023 (Tasa respuesta: 20,48%)</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
   </si>
   <si>
     <t>3,69%</t>
   </si>
   <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
   </si>
   <si>
     <t>5,02%</t>
   </si>
   <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
     <t>3,98%</t>
   </si>
   <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la exposición a respirar vapores, humos, polvo, o sustancias peligrosas.../Manejar o tocas sustancias o productos peligrosos/Radiaciones como rayos X, soldadura, rayos láseren su trabajo en 2012 (Tasa respuesta: 33,84%)</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a respirar vapores, humos, polvo, o sustancias peligrosas.../Manejar o tocas sustancias o productos peligrosos/Radiaciones como rayos X, soldadura, rayos láseren su trabajo en 2016 (Tasa respuesta: 35,39%)</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a respirar vapores, humos, polvo, o sustancias peligrosas.../Manejar o tocas sustancias o productos peligrosos/Radiaciones como rayos X, soldadura, rayos láseren su trabajo en 2023 (Tasa respuesta: 20,48%)</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
     <t>2,8%</t>
   </si>
   <si>
+    <t>5,66%</t>
+  </si>
+  <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>4,74%</t>
+    <t>2,68%</t>
   </si>
 </sst>
 </file>
@@ -2142,7 +2124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F56ABC7-6820-4548-B29A-BD2C5A184BD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C763E088-8C01-48D9-A223-6A39D86C9BEE}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2933,13 +2915,13 @@
         <v>11134</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -2948,13 +2930,13 @@
         <v>3717</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -2963,13 +2945,13 @@
         <v>14851</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3037,13 +3019,13 @@
         <v>1298726</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>831</v>
@@ -3052,13 +3034,13 @@
         <v>867788</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>2076</v>
@@ -3067,13 +3049,13 @@
         <v>2166514</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3088,13 +3070,13 @@
         <v>318071</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>94</v>
@@ -3103,13 +3085,13 @@
         <v>98245</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>394</v>
@@ -3118,13 +3100,13 @@
         <v>416316</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3139,10 +3121,10 @@
         <v>208327</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>144</v>
@@ -3211,7 +3193,7 @@
         <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>85</v>
@@ -3220,13 +3202,13 @@
         <v>91805</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3282,7 +3264,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3301,7 +3283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52B8352-E1E3-457E-82BF-7A98625E69E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56E40F5-0235-4430-914F-02FE6025B765}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3318,7 +3300,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3425,13 +3407,13 @@
         <v>79260</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>93</v>
@@ -3440,13 +3422,13 @@
         <v>101320</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>170</v>
@@ -3455,13 +3437,13 @@
         <v>180580</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,13 +3458,13 @@
         <v>45425</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
@@ -3491,13 +3473,13 @@
         <v>24616</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>67</v>
@@ -3506,13 +3488,13 @@
         <v>70041</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,13 +3509,13 @@
         <v>37884</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -3542,13 +3524,13 @@
         <v>6319</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M6" s="7">
         <v>43</v>
@@ -3557,13 +3539,13 @@
         <v>44203</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3578,13 +3560,13 @@
         <v>21449</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -3593,10 +3575,10 @@
         <v>6605</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>192</v>
+        <v>122</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>193</v>
@@ -3614,7 +3596,7 @@
         <v>195</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>196</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,13 +3664,13 @@
         <v>490225</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H9" s="7">
         <v>408</v>
@@ -3697,13 +3679,13 @@
         <v>436951</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M9" s="7">
         <v>876</v>
@@ -3712,13 +3694,13 @@
         <v>927176</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,13 +3715,13 @@
         <v>237624</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H10" s="7">
         <v>76</v>
@@ -3748,13 +3730,13 @@
         <v>81055</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M10" s="7">
         <v>301</v>
@@ -3763,13 +3745,13 @@
         <v>318680</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3784,13 +3766,13 @@
         <v>111818</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H11" s="7">
         <v>31</v>
@@ -3799,13 +3781,13 @@
         <v>34628</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="M11" s="7">
         <v>135</v>
@@ -3838,10 +3820,10 @@
         <v>223</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>109</v>
+        <v>224</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H12" s="7">
         <v>20</v>
@@ -3850,13 +3832,13 @@
         <v>20203</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>225</v>
+        <v>108</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M12" s="7">
         <v>85</v>
@@ -3865,13 +3847,13 @@
         <v>91289</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,13 +3921,13 @@
         <v>246404</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H14" s="7">
         <v>178</v>
@@ -3954,13 +3936,13 @@
         <v>197986</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M14" s="7">
         <v>403</v>
@@ -3969,13 +3951,13 @@
         <v>444390</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,13 +3972,13 @@
         <v>45103</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H15" s="7">
         <v>21</v>
@@ -4005,13 +3987,13 @@
         <v>24283</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M15" s="7">
         <v>61</v>
@@ -4020,13 +4002,13 @@
         <v>69386</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,13 +4023,13 @@
         <v>18002</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>250</v>
+        <v>137</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -4355,7 +4337,7 @@
         <v>293</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>43</v>
+        <v>294</v>
       </c>
       <c r="H22" s="7">
         <v>28</v>
@@ -4364,7 +4346,7 @@
         <v>29972</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>294</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>295</v>
@@ -4382,10 +4364,10 @@
         <v>297</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4441,7 +4423,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4460,7 +4442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4D9554-7B28-4846-9A2A-AE20D2BDE3BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBDCC48-9361-412F-AC7A-3CD5C2BFBA1E}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4477,7 +4459,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4584,13 +4566,13 @@
         <v>48760</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H4" s="7">
         <v>49</v>
@@ -4599,13 +4581,13 @@
         <v>49424</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="M4" s="7">
         <v>95</v>
@@ -4614,13 +4596,13 @@
         <v>98184</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,13 +4617,13 @@
         <v>48575</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -4650,13 +4632,13 @@
         <v>17686</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M5" s="7">
         <v>64</v>
@@ -4665,13 +4647,13 @@
         <v>66261</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4686,7 +4668,7 @@
         <v>29468</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>319</v>
@@ -4704,10 +4686,10 @@
         <v>321</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="M6" s="7">
         <v>33</v>
@@ -4716,13 +4698,13 @@
         <v>34445</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4737,13 +4719,13 @@
         <v>13164</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4755,10 +4737,10 @@
         <v>45</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -4767,13 +4749,13 @@
         <v>13164</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4841,13 +4823,13 @@
         <v>492287</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="H9" s="7">
         <v>461</v>
@@ -4856,13 +4838,13 @@
         <v>471833</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="M9" s="7">
         <v>919</v>
@@ -4871,13 +4853,13 @@
         <v>964119</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,13 +4874,13 @@
         <v>252731</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="H10" s="7">
         <v>110</v>
@@ -4907,13 +4889,13 @@
         <v>111967</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="M10" s="7">
         <v>347</v>
@@ -4922,13 +4904,13 @@
         <v>364698</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4943,13 +4925,13 @@
         <v>136851</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H11" s="7">
         <v>50</v>
@@ -4958,13 +4940,13 @@
         <v>50993</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="M11" s="7">
         <v>179</v>
@@ -4973,13 +4955,13 @@
         <v>187844</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4994,13 +4976,13 @@
         <v>38579</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H12" s="7">
         <v>16</v>
@@ -5012,10 +4994,10 @@
         <v>363</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>111</v>
+        <v>364</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>364</v>
+        <v>87</v>
       </c>
       <c r="M12" s="7">
         <v>53</v>
@@ -5024,7 +5006,7 @@
         <v>55565</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>365</v>
@@ -5200,13 +5182,13 @@
         <v>22061</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -5215,13 +5197,13 @@
         <v>6787</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -5230,13 +5212,13 @@
         <v>28848</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5251,13 +5233,13 @@
         <v>5340</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -5266,13 +5248,13 @@
         <v>7061</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -5281,13 +5263,13 @@
         <v>12401</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>402</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,13 +5337,13 @@
         <v>800337</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H19" s="7">
         <v>761</v>
@@ -5370,13 +5352,13 @@
         <v>782520</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>306</v>
+        <v>405</v>
       </c>
       <c r="M19" s="7">
         <v>1503</v>
@@ -5385,13 +5367,13 @@
         <v>1582856</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5406,13 +5388,13 @@
         <v>363217</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="H20" s="7">
         <v>161</v>
@@ -5421,13 +5403,13 @@
         <v>161989</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="M20" s="7">
         <v>499</v>
@@ -5436,13 +5418,13 @@
         <v>525205</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5457,13 +5439,13 @@
         <v>188380</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="H21" s="7">
         <v>62</v>
@@ -5472,13 +5454,13 @@
         <v>62756</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="M21" s="7">
         <v>240</v>
@@ -5487,13 +5469,13 @@
         <v>251137</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,13 +5490,13 @@
         <v>57083</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -5523,13 +5505,13 @@
         <v>24047</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>433</v>
       </c>
       <c r="M22" s="7">
         <v>76</v>
@@ -5538,13 +5520,13 @@
         <v>81130</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5600,7 +5582,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -5619,7 +5601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4483B4-AB8B-4476-AE55-69F2015D4169}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F8F5F6-4C75-4A65-89C1-05A59EB6B09D}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5636,7 +5618,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5743,13 +5725,13 @@
         <v>34250</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="H4" s="7">
         <v>37</v>
@@ -5758,13 +5740,13 @@
         <v>24361</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>443</v>
       </c>
       <c r="M4" s="7">
         <v>71</v>
@@ -5773,13 +5755,13 @@
         <v>58611</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,13 +5776,13 @@
         <v>22978</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>449</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
@@ -5809,13 +5791,13 @@
         <v>15947</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>452</v>
       </c>
       <c r="M5" s="7">
         <v>49</v>
@@ -5824,13 +5806,13 @@
         <v>38925</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5845,13 +5827,13 @@
         <v>4759</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>456</v>
+        <v>253</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>457</v>
+        <v>363</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -5860,13 +5842,13 @@
         <v>1988</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -5875,13 +5857,13 @@
         <v>6747</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>462</v>
+        <v>391</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5896,13 +5878,13 @@
         <v>5285</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5911,13 +5893,13 @@
         <v>723</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -5926,13 +5908,13 @@
         <v>6008</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>121</v>
+        <v>466</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>471</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6000,13 +5982,13 @@
         <v>343536</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="H9" s="7">
         <v>397</v>
@@ -6015,13 +5997,13 @@
         <v>302081</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="M9" s="7">
         <v>660</v>
@@ -6030,13 +6012,13 @@
         <v>645617</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6051,13 +6033,13 @@
         <v>197253</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="H10" s="7">
         <v>145</v>
@@ -6066,13 +6048,13 @@
         <v>110169</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>484</v>
+        <v>343</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="M10" s="7">
         <v>325</v>
@@ -6081,13 +6063,13 @@
         <v>307421</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6102,13 +6084,13 @@
         <v>70606</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>490</v>
+        <v>209</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>492</v>
+        <v>140</v>
       </c>
       <c r="H11" s="7">
         <v>33</v>
@@ -6117,13 +6099,13 @@
         <v>24382</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>493</v>
+        <v>429</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="M11" s="7">
         <v>95</v>
@@ -6132,13 +6114,13 @@
         <v>94988</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>497</v>
+        <v>244</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6153,13 +6135,13 @@
         <v>20895</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>402</v>
+        <v>489</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>500</v>
+        <v>115</v>
       </c>
       <c r="H12" s="7">
         <v>23</v>
@@ -6168,13 +6150,13 @@
         <v>17848</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>501</v>
+        <v>385</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>463</v>
+        <v>491</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>502</v>
+        <v>293</v>
       </c>
       <c r="M12" s="7">
         <v>41</v>
@@ -6183,13 +6165,13 @@
         <v>38743</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>363</v>
+        <v>493</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6257,13 +6239,13 @@
         <v>214614</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>505</v>
+        <v>239</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="H14" s="7">
         <v>262</v>
@@ -6272,13 +6254,13 @@
         <v>184041</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="M14" s="7">
         <v>457</v>
@@ -6287,13 +6269,13 @@
         <v>398654</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6308,13 +6290,13 @@
         <v>28362</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>490</v>
+        <v>209</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="H15" s="7">
         <v>22</v>
@@ -6323,13 +6305,13 @@
         <v>18470</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>518</v>
+        <v>459</v>
       </c>
       <c r="M15" s="7">
         <v>53</v>
@@ -6338,13 +6320,13 @@
         <v>46832</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>519</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>140</v>
+        <v>508</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6359,13 +6341,13 @@
         <v>6485</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>157</v>
+        <v>509</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -6374,13 +6356,13 @@
         <v>1504</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -6389,13 +6371,13 @@
         <v>7989</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>527</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6410,13 +6392,13 @@
         <v>4523</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -6425,13 +6407,13 @@
         <v>9760</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -6440,13 +6422,13 @@
         <v>14283</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6514,13 +6496,13 @@
         <v>592400</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="H19" s="7">
         <v>696</v>
@@ -6529,13 +6511,13 @@
         <v>510483</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="M19" s="7">
         <v>1188</v>
@@ -6544,13 +6526,13 @@
         <v>1102883</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6565,13 +6547,13 @@
         <v>248592</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="H20" s="7">
         <v>191</v>
@@ -6580,13 +6562,13 @@
         <v>144586</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>376</v>
+        <v>537</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="M20" s="7">
         <v>427</v>
@@ -6595,13 +6577,13 @@
         <v>393178</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>26</v>
+        <v>540</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6616,13 +6598,13 @@
         <v>81850</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="H21" s="7">
         <v>38</v>
@@ -6631,13 +6613,13 @@
         <v>27874</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>158</v>
+        <v>545</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>74</v>
+        <v>546</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="M21" s="7">
         <v>115</v>
@@ -6646,13 +6628,13 @@
         <v>109725</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>556</v>
+        <v>298</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6667,13 +6649,13 @@
         <v>30704</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="H22" s="7">
         <v>35</v>
@@ -6682,10 +6664,10 @@
         <v>28330</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>102</v>
+        <v>553</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>555</v>
@@ -6697,13 +6679,13 @@
         <v>59034</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>365</v>
+        <v>557</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>563</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6759,7 +6741,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6603-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6603-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17BDB3C2-9C24-437B-A9A2-578FB06A9081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{242D4D4D-682C-4462-BCDC-D6E09130DD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FB62835C-33A1-44B8-B55D-F0907CEF344A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DF164A2E-522D-4C8D-B43A-CD4866C10DF9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="551">
   <si>
     <t>Población según la exposición a respirar vapores, humos, polvo, o sustancias peligrosas.../Manejar o tocas sustancias o productos peligrosos/Radiaciones como rayos X, soldadura, rayos láseren su trabajo en 2007 (Tasa respuesta: 43,03%)</t>
   </si>
@@ -1349,370 +1349,349 @@
     <t>Población según la exposición a respirar vapores, humos, polvo, o sustancias peligrosas.../Manejar o tocas sustancias o productos peligrosos/Radiaciones como rayos X, soldadura, rayos láseren su trabajo en 2023 (Tasa respuesta: 20,48%)</t>
   </si>
   <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
   </si>
   <si>
     <t>1,68%</t>
   </si>
   <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
   </si>
   <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
   </si>
 </sst>
 </file>
@@ -2124,7 +2103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C763E088-8C01-48D9-A223-6A39D86C9BEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07AB16D-5192-4079-89B0-2EA333885CA8}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2774,7 +2753,7 @@
         <v>248</v>
       </c>
       <c r="I14" s="7">
-        <v>257874</v>
+        <v>257875</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>92</v>
@@ -2978,7 +2957,7 @@
         <v>278</v>
       </c>
       <c r="I18" s="7">
-        <v>290176</v>
+        <v>290177</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -3283,7 +3262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56E40F5-0235-4430-914F-02FE6025B765}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93DCBDED-256E-413B-A2F1-DCA137F41B5A}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4442,7 +4421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBDCC48-9361-412F-AC7A-3CD5C2BFBA1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BE49FC-6805-4E64-83E5-7300142FCBE5}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5601,7 +5580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F8F5F6-4C75-4A65-89C1-05A59EB6B09D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287078FF-8977-486A-BB85-528A6F891128}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5722,7 +5701,7 @@
         <v>34</v>
       </c>
       <c r="D4" s="7">
-        <v>34250</v>
+        <v>33413</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>436</v>
@@ -5737,7 +5716,7 @@
         <v>37</v>
       </c>
       <c r="I4" s="7">
-        <v>24361</v>
+        <v>22604</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>439</v>
@@ -5752,7 +5731,7 @@
         <v>71</v>
       </c>
       <c r="N4" s="7">
-        <v>58611</v>
+        <v>56017</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>442</v>
@@ -5773,7 +5752,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="7">
-        <v>22978</v>
+        <v>22488</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>445</v>
@@ -5788,7 +5767,7 @@
         <v>24</v>
       </c>
       <c r="I5" s="7">
-        <v>15947</v>
+        <v>14069</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>448</v>
@@ -5803,7 +5782,7 @@
         <v>49</v>
       </c>
       <c r="N5" s="7">
-        <v>38925</v>
+        <v>36557</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>451</v>
@@ -5824,40 +5803,40 @@
         <v>10</v>
       </c>
       <c r="D6" s="7">
-        <v>4759</v>
+        <v>4562</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>253</v>
+        <v>454</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>363</v>
+        <v>455</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>1988</v>
+        <v>1793</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>455</v>
+        <v>47</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
       </c>
       <c r="N6" s="7">
-        <v>6747</v>
+        <v>6355</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>391</v>
+        <v>457</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>458</v>
@@ -5875,46 +5854,46 @@
         <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>5285</v>
+        <v>4952</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>460</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>462</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>723</v>
+        <v>657</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>464</v>
+        <v>43</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
       </c>
       <c r="N7" s="7">
-        <v>6008</v>
+        <v>5608</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>465</v>
+        <v>81</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>209</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5926,7 +5905,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="7">
-        <v>67272</v>
+        <v>65414</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -5941,7 +5920,7 @@
         <v>65</v>
       </c>
       <c r="I8" s="7">
-        <v>43019</v>
+        <v>39123</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -5956,7 +5935,7 @@
         <v>139</v>
       </c>
       <c r="N8" s="7">
-        <v>110291</v>
+        <v>104537</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -5979,46 +5958,46 @@
         <v>263</v>
       </c>
       <c r="D9" s="7">
-        <v>343536</v>
+        <v>528857</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>469</v>
       </c>
       <c r="H9" s="7">
         <v>397</v>
       </c>
       <c r="I9" s="7">
-        <v>302081</v>
+        <v>302457</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>472</v>
       </c>
       <c r="M9" s="7">
         <v>660</v>
       </c>
       <c r="N9" s="7">
-        <v>645617</v>
+        <v>831314</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>473</v>
+        <v>52</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6030,46 +6009,46 @@
         <v>180</v>
       </c>
       <c r="D10" s="7">
-        <v>197253</v>
+        <v>188560</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H10" s="7">
         <v>145</v>
       </c>
       <c r="I10" s="7">
-        <v>110169</v>
+        <v>98904</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>343</v>
+        <v>476</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="M10" s="7">
         <v>325</v>
       </c>
       <c r="N10" s="7">
-        <v>307421</v>
+        <v>287464</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>481</v>
+        <v>206</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6081,25 +6060,25 @@
         <v>62</v>
       </c>
       <c r="D11" s="7">
-        <v>70606</v>
+        <v>67043</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>209</v>
+        <v>481</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>140</v>
+        <v>483</v>
       </c>
       <c r="H11" s="7">
         <v>33</v>
       </c>
       <c r="I11" s="7">
-        <v>24382</v>
+        <v>22183</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>429</v>
+        <v>484</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>485</v>
@@ -6111,13 +6090,13 @@
         <v>95</v>
       </c>
       <c r="N11" s="7">
-        <v>94988</v>
+        <v>89227</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>487</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>488</v>
@@ -6132,7 +6111,7 @@
         <v>18</v>
       </c>
       <c r="D12" s="7">
-        <v>20895</v>
+        <v>19110</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>489</v>
@@ -6141,37 +6120,37 @@
         <v>490</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>115</v>
+        <v>491</v>
       </c>
       <c r="H12" s="7">
         <v>23</v>
       </c>
       <c r="I12" s="7">
-        <v>17848</v>
+        <v>16315</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>385</v>
+        <v>492</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>491</v>
+        <v>430</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>293</v>
+        <v>493</v>
       </c>
       <c r="M12" s="7">
         <v>41</v>
       </c>
       <c r="N12" s="7">
-        <v>38743</v>
+        <v>35425</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>493</v>
+        <v>44</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6183,7 +6162,7 @@
         <v>523</v>
       </c>
       <c r="D13" s="7">
-        <v>632290</v>
+        <v>803570</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -6198,7 +6177,7 @@
         <v>598</v>
       </c>
       <c r="I13" s="7">
-        <v>454480</v>
+        <v>439859</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -6213,7 +6192,7 @@
         <v>1121</v>
       </c>
       <c r="N13" s="7">
-        <v>1086770</v>
+        <v>1243429</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -6236,46 +6215,46 @@
         <v>195</v>
       </c>
       <c r="D14" s="7">
-        <v>214614</v>
+        <v>205665</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>239</v>
+        <v>496</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H14" s="7">
         <v>262</v>
       </c>
       <c r="I14" s="7">
-        <v>184041</v>
+        <v>172053</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="M14" s="7">
         <v>457</v>
       </c>
       <c r="N14" s="7">
-        <v>398654</v>
+        <v>377718</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>502</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6287,46 +6266,46 @@
         <v>31</v>
       </c>
       <c r="D15" s="7">
-        <v>28362</v>
+        <v>26258</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>209</v>
+        <v>504</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="H15" s="7">
         <v>22</v>
       </c>
       <c r="I15" s="7">
-        <v>18470</v>
+        <v>16596</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>459</v>
+        <v>508</v>
       </c>
       <c r="M15" s="7">
         <v>53</v>
       </c>
       <c r="N15" s="7">
-        <v>46832</v>
+        <v>42853</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>488</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6338,46 +6317,46 @@
         <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>6485</v>
+        <v>5813</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>511</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>1504</v>
+        <v>1415</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>512</v>
+        <v>263</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>513</v>
+        <v>156</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
       </c>
       <c r="N16" s="7">
-        <v>7989</v>
+        <v>7228</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>514</v>
+        <v>252</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>515</v>
+        <v>83</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>226</v>
+        <v>512</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6389,46 +6368,46 @@
         <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>4523</v>
+        <v>4323</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
       </c>
       <c r="I17" s="7">
-        <v>9760</v>
+        <v>9002</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>520</v>
+        <v>148</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
       </c>
       <c r="N17" s="7">
-        <v>14283</v>
+        <v>13325</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6440,7 +6419,7 @@
         <v>233</v>
       </c>
       <c r="D18" s="7">
-        <v>253984</v>
+        <v>242059</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -6455,7 +6434,7 @@
         <v>297</v>
       </c>
       <c r="I18" s="7">
-        <v>213775</v>
+        <v>199066</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -6470,7 +6449,7 @@
         <v>530</v>
       </c>
       <c r="N18" s="7">
-        <v>467759</v>
+        <v>441125</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -6493,46 +6472,46 @@
         <v>492</v>
       </c>
       <c r="D19" s="7">
-        <v>592400</v>
+        <v>767934</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="H19" s="7">
         <v>696</v>
       </c>
       <c r="I19" s="7">
-        <v>510483</v>
+        <v>497114</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="M19" s="7">
         <v>1188</v>
       </c>
       <c r="N19" s="7">
-        <v>1102883</v>
+        <v>1265049</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6544,46 +6523,46 @@
         <v>236</v>
       </c>
       <c r="D20" s="7">
-        <v>248592</v>
+        <v>237305</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H20" s="7">
         <v>191</v>
       </c>
       <c r="I20" s="7">
-        <v>144586</v>
+        <v>129569</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="M20" s="7">
         <v>427</v>
       </c>
       <c r="N20" s="7">
-        <v>393178</v>
+        <v>366874</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6595,46 +6574,46 @@
         <v>77</v>
       </c>
       <c r="D21" s="7">
-        <v>81850</v>
+        <v>77418</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>542</v>
+        <v>454</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>543</v>
+        <v>226</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="H21" s="7">
         <v>38</v>
       </c>
       <c r="I21" s="7">
-        <v>27874</v>
+        <v>25391</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>546</v>
+        <v>84</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="M21" s="7">
         <v>115</v>
       </c>
       <c r="N21" s="7">
-        <v>109725</v>
+        <v>102809</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>298</v>
+        <v>541</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6646,46 +6625,46 @@
         <v>25</v>
       </c>
       <c r="D22" s="7">
-        <v>30704</v>
+        <v>28385</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="H22" s="7">
         <v>35</v>
       </c>
       <c r="I22" s="7">
-        <v>28330</v>
+        <v>25974</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>554</v>
+        <v>329</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="M22" s="7">
         <v>60</v>
       </c>
       <c r="N22" s="7">
-        <v>59034</v>
+        <v>54358</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>261</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6697,7 +6676,7 @@
         <v>830</v>
       </c>
       <c r="D23" s="7">
-        <v>953546</v>
+        <v>1111042</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -6712,7 +6691,7 @@
         <v>960</v>
       </c>
       <c r="I23" s="7">
-        <v>711274</v>
+        <v>678048</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -6727,7 +6706,7 @@
         <v>1790</v>
       </c>
       <c r="N23" s="7">
-        <v>1664820</v>
+        <v>1789090</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
